--- a/biology/Zoologie/Aktaua/Aktaua.xlsx
+++ b/biology/Zoologie/Aktaua/Aktaua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aktaua kizylkumensis
-Aktaua est un genre éteint de poissons-scies qui ont vécu lors du Lutétien[1],[2]. Une seule espèce est connue, l'espèce type, Aktaua kizylkumensis, mise au jour en Ouzbékistan.
+Aktaua est un genre éteint de poissons-scies qui ont vécu lors du Lutétien,. Une seule espèce est connue, l'espèce type, Aktaua kizylkumensis, mise au jour en Ouzbékistan.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Aktaua et l'espèce Aktaua kizylkumensis ont été décrits en 1996 par Gerard Ramon Case (d), N. I. Udovichenko (d),
-Lev Alexandrovich Nessov (d), Alexander O. Averianov (d) et Paul D. Borodin (d)[3],[4].
+Lev Alexandrovich Nessov (d), Alexander O. Averianov (d) et Paul D. Borodin (d),.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Aktaua, dérive du mot ouzbek « Aktau » qui signifie « blanc » et fait référence à la formation White mountain dans le désert du Kyzylkoum en Ouzbékistan où ont été trouvés les restes fossiles[4].
-L'épithète spécifique, composée de kizylkum et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Aktaua, dérive du mot ouzbek « Aktau » qui signifie « blanc » et fait référence à la formation White mountain dans le désert du Kyzylkoum en Ouzbékistan où ont été trouvés les restes fossiles.
+L'épithète spécifique, composée de kizylkum et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence au lieu de sa découverte.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) G. R. Case, N. I. Udovichenko, L. A. Nessov †, A. O. Averianov et P. D. Borodin, « A Middle Eocene selachian fauna from the White Mountain Formation of the Kizylkum Desert, Uzbekistan, C.I.S. », Palaeontographica Abteilung A, vol. 242, nos 4-6,‎ décembre 1996, p. 99-126 (ISSN 0375-0442 et 2509-8373, lire en ligne)</t>
         </is>
